--- a/1_Result_Tables/4_ifoCAST_evaluations_GVA_full/ifoCAst_error_tables_full_latest_GVA.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_GVA_full/ifoCAst_error_tables_full_latest_GVA.xlsx
@@ -429,19 +429,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.005920978115938522</v>
+        <v>-0.007798538995164189</v>
       </c>
       <c r="C2">
-        <v>0.8622275596449994</v>
+        <v>0.8629205835071485</v>
       </c>
       <c r="D2">
-        <v>1.446581842209047</v>
+        <v>1.444608608967088</v>
       </c>
       <c r="E2">
-        <v>1.202739307667729</v>
+        <v>1.20191871978395</v>
       </c>
       <c r="F2">
-        <v>1.216315274715025</v>
+        <v>1.215474567149581</v>
       </c>
       <c r="G2">
         <v>45</v>
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.09825817499008872</v>
+        <v>0.09720554110293481</v>
       </c>
       <c r="C3">
-        <v>1.251990051013241</v>
+        <v>1.198028828389808</v>
       </c>
       <c r="D3">
-        <v>3.800948723494429</v>
+        <v>3.637881730776367</v>
       </c>
       <c r="E3">
-        <v>1.949602196217072</v>
+        <v>1.907323184669123</v>
       </c>
       <c r="F3">
-        <v>1.954217934052463</v>
+        <v>1.911493256486692</v>
       </c>
       <c r="G3">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1557670170891984</v>
+        <v>0.1802234366250808</v>
       </c>
       <c r="C4">
-        <v>1.451425064537791</v>
+        <v>1.394212243063904</v>
       </c>
       <c r="D4">
-        <v>8.52367605468854</v>
+        <v>8.046150714213496</v>
       </c>
       <c r="E4">
-        <v>2.91953353374962</v>
+        <v>2.836573763224481</v>
       </c>
       <c r="F4">
-        <v>2.937715589760688</v>
+        <v>2.851282233543963</v>
       </c>
       <c r="G4">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
